--- a/performance.xlsx
+++ b/performance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Original model</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>glorot_uniform</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Residual</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,7 +164,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,15 +461,21 @@
     <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -474,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -482,7 +494,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
@@ -490,7 +502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
@@ -498,7 +510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
@@ -506,17 +518,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -527,7 +539,7 @@
         <v>77.92</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>10</v>
@@ -536,7 +548,7 @@
         <v>98.74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>4</v>
@@ -545,7 +557,7 @@
         <v>0.66910999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>6</v>
@@ -554,7 +566,7 @@
         <v>3976418.28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>7</v>
@@ -563,7 +575,7 @@
         <v>3.2069000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>11</v>
@@ -572,7 +584,7 @@
         <v>0.45540000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -583,7 +595,7 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>10</v>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -5,14 +5,15 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoangnguyen/Documents/Github/process-sequence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoangnguyen/Dropbox/process-sequence/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="helpdesk" sheetId="1" r:id="rId1"/>
+    <sheet name="bpi" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
   <si>
     <t>Original model</t>
   </si>
@@ -93,6 +94,9 @@
   </si>
   <si>
     <t>Residual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max suffix </t>
   </si>
 </sst>
 </file>
@@ -450,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +762,333 @@
         <v>12</v>
       </c>
       <c r="C34">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>99.96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>778251.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>75.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>99.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>887618.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>77.28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>99.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <v>635238.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>99.89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4">
+        <v>726631.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="helpdesk" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Original model</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t xml:space="preserve">Max suffix </t>
+  </si>
+  <si>
+    <t>BLSTM+ATT</t>
   </si>
 </sst>
 </file>
@@ -131,18 +134,76 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -152,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -173,6 +234,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,307 +569,513 @@
     <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="13">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="14">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="17">
         <v>77.92</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
+        <v>76.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="17">
         <v>98.74</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>98.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="17">
         <v>0.66910999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="17">
         <v>3976418.28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16">
+        <v>4336929.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4">
-        <v>3.2069000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
+      <c r="C13" s="19">
+        <v>3.64</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="17">
         <v>0.45540000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="23">
         <v>82.02</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22">
+        <v>66.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="17">
         <v>99.55</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <v>99.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="17">
         <v>0.45479999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="17">
         <v>1263083.1299999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
+        <v>2808934.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
-        <v>1.1431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" t="s">
+      <c r="C19" s="19">
+        <v>2.79</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="17">
         <v>5.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="17">
         <v>88.76</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="17">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="17">
         <v>0.3498</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="17">
         <v>1396026.07</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16">
+        <v>3389464.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4">
-        <v>0.98529999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
+      <c r="C25" s="19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+      <c r="B26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="17">
         <v>6.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="4">
-        <v>82.29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
+      <c r="C27" s="19">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
+        <v>71.349999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="17">
         <v>99.14</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16">
+        <v>98.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="17">
         <v>0.55610000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="17">
         <v>2716736.29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16">
+        <v>4499697.4400000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="4">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="C31" s="19">
+        <v>3.82</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="17">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="16">
         <v>20</v>
       </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -774,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
